--- a/Code/Results/Cases/Case_8_35/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_8_35/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.379001390694327</v>
+        <v>2.380614480607107</v>
       </c>
       <c r="C2">
-        <v>0.7220354605954356</v>
+        <v>0.7607593045270562</v>
       </c>
       <c r="D2">
-        <v>0.05636013794914163</v>
+        <v>0.05874352442556585</v>
       </c>
       <c r="E2">
-        <v>0.2514299743918684</v>
+        <v>0.2508245964736844</v>
       </c>
       <c r="F2">
-        <v>0.4568720778561115</v>
+        <v>0.4300517330777112</v>
       </c>
       <c r="G2">
-        <v>0.000792360851319265</v>
+        <v>0.0002281653852721915</v>
       </c>
       <c r="H2">
-        <v>0.001177901716275631</v>
+        <v>0.001298970329043803</v>
       </c>
       <c r="I2">
-        <v>0.002702639398125761</v>
+        <v>0.003251983528282487</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.1969058808913964</v>
+        <v>0.1781765798543322</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1156836151159482</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.03282754754856754</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.9559501351839188</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.274616555872399</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.9643961622169144</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.183004837721484</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.076636609736795</v>
+        <v>2.081733536035301</v>
       </c>
       <c r="C3">
-        <v>0.6379456736361533</v>
+        <v>0.6671339156080478</v>
       </c>
       <c r="D3">
-        <v>0.05031229766615297</v>
+        <v>0.05168125995502493</v>
       </c>
       <c r="E3">
-        <v>0.2245900497307005</v>
+        <v>0.2259720124906295</v>
       </c>
       <c r="F3">
-        <v>0.4236836456696196</v>
+        <v>0.3999005155449851</v>
       </c>
       <c r="G3">
-        <v>0.0007956290960645433</v>
+        <v>3.085058467022783E-08</v>
       </c>
       <c r="H3">
-        <v>0.000412781116763572</v>
+        <v>0.0005354766187732896</v>
       </c>
       <c r="I3">
-        <v>0.001565567496952358</v>
+        <v>0.002190678731550655</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.20247862626859</v>
+        <v>0.1840014569716946</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1211637597009023</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.03274023548483207</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.8323581210387871</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.209524208418941</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.8392380034978189</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.12531204673779</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.890580364302906</v>
+        <v>1.897670829041914</v>
       </c>
       <c r="C4">
-        <v>0.5866254910959583</v>
+        <v>0.6101388707021727</v>
       </c>
       <c r="D4">
-        <v>0.04660957180823999</v>
+        <v>0.04736962198457206</v>
       </c>
       <c r="E4">
-        <v>0.2080791055679896</v>
+        <v>0.2106671517416174</v>
       </c>
       <c r="F4">
-        <v>0.4038501589576953</v>
+        <v>0.3816478058223325</v>
       </c>
       <c r="G4">
-        <v>0.0007977052769469761</v>
+        <v>8.64908310150847E-05</v>
       </c>
       <c r="H4">
-        <v>0.0001304692409500596</v>
+        <v>0.0002232120047875874</v>
       </c>
       <c r="I4">
-        <v>0.001062626394512822</v>
+        <v>0.001674292743457872</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2062298942584615</v>
+        <v>0.1877631639255011</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1246979240227457</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.03316508567428222</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.7565586284292465</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.171207723360624</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.7624505682476652</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.090583566534448</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.814523668115584</v>
+        <v>1.82239889640303</v>
       </c>
       <c r="C5">
-        <v>0.5667849892683421</v>
+        <v>0.5880177284014678</v>
       </c>
       <c r="D5">
-        <v>0.04517343417649755</v>
+        <v>0.04568769441224418</v>
       </c>
       <c r="E5">
-        <v>0.2012659175965545</v>
+        <v>0.204346500689585</v>
       </c>
       <c r="F5">
-        <v>0.3953067582726248</v>
+        <v>0.3737159305158997</v>
       </c>
       <c r="G5">
-        <v>0.0007985735748672252</v>
+        <v>0.0001758725430859587</v>
       </c>
       <c r="H5">
-        <v>5.949105814506694E-05</v>
+        <v>0.0001327072578607424</v>
       </c>
       <c r="I5">
-        <v>0.0009640066080853771</v>
+        <v>0.001567640096157952</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2074925960988931</v>
+        <v>0.1890317221776048</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1260076041230924</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.03339587456923976</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.7258660241949855</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.154051499629261</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.7313435611932491</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.074787171864926</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.801733512015915</v>
+        <v>1.809742830802264</v>
       </c>
       <c r="C6">
-        <v>0.564724615835388</v>
+        <v>0.5855638801200485</v>
       </c>
       <c r="D6">
-        <v>0.04502158252251576</v>
+        <v>0.0454938334869297</v>
       </c>
       <c r="E6">
-        <v>0.2000433451292096</v>
+        <v>0.2032104350007415</v>
       </c>
       <c r="F6">
-        <v>0.3931764670665316</v>
+        <v>0.3717270084198177</v>
       </c>
       <c r="G6">
-        <v>0.0007987243328679678</v>
+        <v>0.000194610498846351</v>
       </c>
       <c r="H6">
-        <v>5.015057346824392E-05</v>
+        <v>0.0001196439119792725</v>
       </c>
       <c r="I6">
-        <v>0.001031687338258536</v>
+        <v>0.001648727979585374</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2072864310741487</v>
+        <v>0.1888694548138137</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1260176301560314</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.03336643496112668</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.7209940925778895</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.148867900754936</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.7263940431887903</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.069973151989416</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.889133178515266</v>
+        <v>1.896290339090854</v>
       </c>
       <c r="C7">
-        <v>0.5897262414831914</v>
+        <v>0.6113149131584521</v>
       </c>
       <c r="D7">
-        <v>0.0468271892795542</v>
+        <v>0.0480192418772134</v>
       </c>
       <c r="E7">
-        <v>0.2077400939458229</v>
+        <v>0.210369803458903</v>
       </c>
       <c r="F7">
-        <v>0.4017691672911567</v>
+        <v>0.3763466999091207</v>
       </c>
       <c r="G7">
-        <v>0.0007977316161160708</v>
+        <v>0.0002473752360370174</v>
       </c>
       <c r="H7">
-        <v>0.0001286808926470595</v>
+        <v>0.0002192099953959303</v>
       </c>
       <c r="I7">
-        <v>0.001268125905619755</v>
+        <v>0.001912657825485553</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2050997632113543</v>
+        <v>0.1855844989114122</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.123522107675976</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.03269437294520561</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.7567577801179013</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.164534126819248</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.7622888592584687</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.073515614182156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.274259195219543</v>
+        <v>2.277268868315502</v>
       </c>
       <c r="C8">
-        <v>0.6974754395240552</v>
+        <v>0.7265954598236419</v>
       </c>
       <c r="D8">
-        <v>0.05458979939934494</v>
+        <v>0.05811326245235193</v>
       </c>
       <c r="E8">
-        <v>0.2418531854237287</v>
+        <v>0.2420421775249295</v>
       </c>
       <c r="F8">
-        <v>0.442706699158613</v>
+        <v>0.4061106563943326</v>
       </c>
       <c r="G8">
-        <v>0.0007934915415230776</v>
+        <v>0.001347793710446687</v>
       </c>
       <c r="H8">
-        <v>0.0008712985855154898</v>
+        <v>0.0009872873529257475</v>
       </c>
       <c r="I8">
-        <v>0.002513053749271243</v>
+        <v>0.003120854596759592</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.1972528845866606</v>
+        <v>0.1750835512123832</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1150672649489781</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.03132357803222074</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.9141299780240857</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.243296229838364</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.9208858086838205</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.119434304801175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.027593794890038</v>
+        <v>3.020904721451927</v>
       </c>
       <c r="C9">
-        <v>0.9055435757418309</v>
+        <v>0.9575305762311928</v>
       </c>
       <c r="D9">
-        <v>0.0694882166016626</v>
+        <v>0.07608915468160404</v>
       </c>
       <c r="E9">
-        <v>0.3090886874799281</v>
+        <v>0.3042386071989966</v>
       </c>
       <c r="F9">
-        <v>0.5312945728490206</v>
+        <v>0.4822053613051978</v>
       </c>
       <c r="G9">
-        <v>0.0007856921036182158</v>
+        <v>0.003414942881945215</v>
       </c>
       <c r="H9">
-        <v>0.003957229592150613</v>
+        <v>0.003856839613080587</v>
       </c>
       <c r="I9">
-        <v>0.006353364759817737</v>
+        <v>0.00631535305986386</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.186691342686462</v>
+        <v>0.162038786570184</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1029967794972997</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.0338754060004316</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.22272651325865</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.423692781788219</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1.232827726413603</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.265463345327646</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.598810816711023</v>
+        <v>3.584352743620286</v>
       </c>
       <c r="C10">
-        <v>1.065213068153867</v>
+        <v>1.121625805449241</v>
       </c>
       <c r="D10">
-        <v>0.0819569355175318</v>
+        <v>0.09367678321699913</v>
       </c>
       <c r="E10">
-        <v>0.3323545186988568</v>
+        <v>0.324273491502133</v>
       </c>
       <c r="F10">
-        <v>0.5889546756398332</v>
+        <v>0.5115398642269824</v>
       </c>
       <c r="G10">
-        <v>0.0007803668214235855</v>
+        <v>0.01293983727672554</v>
       </c>
       <c r="H10">
-        <v>0.007267814379383619</v>
+        <v>0.006773170163103526</v>
       </c>
       <c r="I10">
-        <v>0.01047960310374663</v>
+        <v>0.009512196271633577</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.1760546566993533</v>
+        <v>0.1442439415210046</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.09172849486228429</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.03434962120443963</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.41384274250548</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.531212737836711</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.423565671493648</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.287408737452154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.02697291530842</v>
+        <v>4.011471333870361</v>
       </c>
       <c r="C11">
-        <v>1.169019530358355</v>
+        <v>1.19202598560156</v>
       </c>
       <c r="D11">
-        <v>0.1002615366986319</v>
+        <v>0.1197253756315177</v>
       </c>
       <c r="E11">
-        <v>0.164024915927957</v>
+        <v>0.1574623774764206</v>
       </c>
       <c r="F11">
-        <v>0.5279642578589403</v>
+        <v>0.4224247934513414</v>
       </c>
       <c r="G11">
-        <v>0.0007786970383435499</v>
+        <v>0.04677725338085281</v>
       </c>
       <c r="H11">
-        <v>0.02500039088007</v>
+        <v>0.02436247986650386</v>
       </c>
       <c r="I11">
-        <v>0.0124715139990732</v>
+        <v>0.01105647198290249</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.1365973364720521</v>
+        <v>0.1061119945872857</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.07734945323500053</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.02146322709321602</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.193032747526203</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.301473249057096</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.196032379088123</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.9817138392417348</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.277279988510372</v>
+        <v>4.262473803422665</v>
       </c>
       <c r="C12">
-        <v>1.218666211072048</v>
+        <v>1.218494684233292</v>
       </c>
       <c r="D12">
-        <v>0.1137866906623373</v>
+        <v>0.1372434801356661</v>
       </c>
       <c r="E12">
-        <v>0.08272804695702973</v>
+        <v>0.07708452062271576</v>
       </c>
       <c r="F12">
-        <v>0.4697123563403949</v>
+        <v>0.3596969862446286</v>
       </c>
       <c r="G12">
-        <v>0.0007782581419503613</v>
+        <v>0.07102484187306146</v>
       </c>
       <c r="H12">
-        <v>0.06282262542897854</v>
+        <v>0.06218026868925364</v>
       </c>
       <c r="I12">
-        <v>0.01294424915888293</v>
+        <v>0.01134322715977998</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.1116239522845746</v>
+        <v>0.08814732624793287</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.07160590356792951</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.01425300059455115</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.9841224297526168</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.107632656327297</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.9836054450419098</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.7857877520841186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.401920415656662</v>
+        <v>4.388961910663738</v>
       </c>
       <c r="C13">
-        <v>1.234368394729586</v>
+        <v>1.223132531259751</v>
       </c>
       <c r="D13">
-        <v>0.1246322306313488</v>
+        <v>0.1470833124691779</v>
       </c>
       <c r="E13">
-        <v>0.06217939497369418</v>
+        <v>0.05732986851408217</v>
       </c>
       <c r="F13">
-        <v>0.4069812724759814</v>
+        <v>0.3142136725823761</v>
       </c>
       <c r="G13">
-        <v>0.0007787601092102144</v>
+        <v>0.0649105245046222</v>
       </c>
       <c r="H13">
-        <v>0.1176169668269438</v>
+        <v>0.1170672430765762</v>
       </c>
       <c r="I13">
-        <v>0.01251134415444799</v>
+        <v>0.01103898838541717</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.09423036697865328</v>
+        <v>0.08063831513523656</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.06969384139622697</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.01029290280623307</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.7746177764274194</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.919548829071033</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.7730025886810239</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.6579545413906089</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.431955953643012</v>
+        <v>4.42077705026179</v>
       </c>
       <c r="C14">
-        <v>1.231119463207847</v>
+        <v>1.217444254438135</v>
       </c>
       <c r="D14">
-        <v>0.1311463652808413</v>
+        <v>0.1504190187086465</v>
       </c>
       <c r="E14">
-        <v>0.08338295219027003</v>
+        <v>0.07914545974696097</v>
       </c>
       <c r="F14">
-        <v>0.3612455874922134</v>
+        <v>0.2883569524638929</v>
       </c>
       <c r="G14">
-        <v>0.0007795303063916269</v>
+        <v>0.04802577313873257</v>
       </c>
       <c r="H14">
-        <v>0.1662978979519636</v>
+        <v>0.1658420054493916</v>
       </c>
       <c r="I14">
-        <v>0.01188666034982777</v>
+        <v>0.01064890810566954</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.08588492300105255</v>
+        <v>0.07889362657764876</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.06943183637241868</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.008740568053506426</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.6317677362848073</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.7917348985644281</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.6301915846817252</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.5922676958136606</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.410730945213857</v>
+        <v>4.400246616141033</v>
       </c>
       <c r="C15">
-        <v>1.224377099931814</v>
+        <v>1.212409549296353</v>
       </c>
       <c r="D15">
-        <v>0.1321222351103444</v>
+        <v>0.1495850713560287</v>
       </c>
       <c r="E15">
-        <v>0.09290644329033881</v>
+        <v>0.08897093459382788</v>
       </c>
       <c r="F15">
-        <v>0.348323600464802</v>
+        <v>0.2837189701610754</v>
       </c>
       <c r="G15">
-        <v>0.000779939998250388</v>
+        <v>0.03951252010572759</v>
       </c>
       <c r="H15">
-        <v>0.1785564524408869</v>
+        <v>0.1781422529521848</v>
       </c>
       <c r="I15">
-        <v>0.01163264444405421</v>
+        <v>0.01053800074637579</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.08472782802977807</v>
+        <v>0.07938769823189307</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.06962392146886809</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.008633427886302947</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.5949768495216929</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.7586187079399878</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.5936757049461434</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.5832736586653198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.133140110108172</v>
+        <v>4.125223611939703</v>
       </c>
       <c r="C16">
-        <v>1.153420093212048</v>
+        <v>1.160791134048281</v>
       </c>
       <c r="D16">
-        <v>0.1242745612803589</v>
+        <v>0.13357768490485</v>
       </c>
       <c r="E16">
-        <v>0.08780189856081222</v>
+        <v>0.08545098099374115</v>
       </c>
       <c r="F16">
-        <v>0.335514311299363</v>
+        <v>0.3006139105017454</v>
       </c>
       <c r="G16">
-        <v>0.0007821099676953165</v>
+        <v>0.01098070687098662</v>
       </c>
       <c r="H16">
-        <v>0.1647174127656115</v>
+        <v>0.164484867512428</v>
       </c>
       <c r="I16">
-        <v>0.009891220448168703</v>
+        <v>0.009390453816207511</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.09161966412225997</v>
+        <v>0.08803842859346567</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.07242266389309204</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.0108737528900118</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.5626449002036722</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.7477396621723216</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.5635696583693175</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.6527134878811296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.90509846309908</v>
+        <v>3.898308225775395</v>
       </c>
       <c r="C17">
-        <v>1.101069416179456</v>
+        <v>1.121096019100207</v>
       </c>
       <c r="D17">
-        <v>0.1148023018843247</v>
+        <v>0.1209674115275448</v>
       </c>
       <c r="E17">
-        <v>0.06686044641125477</v>
+        <v>0.0651534385649235</v>
       </c>
       <c r="F17">
-        <v>0.3497105937613014</v>
+        <v>0.324992125819243</v>
       </c>
       <c r="G17">
-        <v>0.0007833776143023642</v>
+        <v>0.004784300592746149</v>
       </c>
       <c r="H17">
-        <v>0.1264309962003125</v>
+        <v>0.12627811566513</v>
       </c>
       <c r="I17">
-        <v>0.008952216311106653</v>
+        <v>0.008748885866427081</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.1010755072622382</v>
+        <v>0.09686823631697639</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.07569990066136478</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.01346747406561644</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.6108536860469016</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.8060159855005367</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.6133651012725352</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.7371771225681982</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.697022194612543</v>
+        <v>3.690075782426561</v>
       </c>
       <c r="C18">
-        <v>1.055983252583275</v>
+        <v>1.088753917889278</v>
       </c>
       <c r="D18">
-        <v>0.1030379326665951</v>
+        <v>0.1084088309631426</v>
       </c>
       <c r="E18">
-        <v>0.06104560164185413</v>
+        <v>0.0590837943157223</v>
       </c>
       <c r="F18">
-        <v>0.3913722294749888</v>
+        <v>0.3665578324138323</v>
       </c>
       <c r="G18">
-        <v>0.0007839349891489135</v>
+        <v>0.003333017798986759</v>
       </c>
       <c r="H18">
-        <v>0.07368371283590847</v>
+        <v>0.07355584451609332</v>
       </c>
       <c r="I18">
-        <v>0.008313077027660931</v>
+        <v>0.008186547005523792</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.1163789419426386</v>
+        <v>0.1093457222623861</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.0805511455749448</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.0176415898145823</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.7434364690095947</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.9410820515584248</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.7479624552992519</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.868878025525305</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.523000357787566</v>
+        <v>3.514849712543366</v>
       </c>
       <c r="C19">
-        <v>1.027687390793147</v>
+        <v>1.07373732290273</v>
       </c>
       <c r="D19">
-        <v>0.09148401968617037</v>
+        <v>0.09722828010976059</v>
       </c>
       <c r="E19">
-        <v>0.1143714516285215</v>
+        <v>0.1111178197527671</v>
       </c>
       <c r="F19">
-        <v>0.4515220337504502</v>
+        <v>0.4202353488569486</v>
       </c>
       <c r="G19">
-        <v>0.0007838128353748271</v>
+        <v>0.003187788648416401</v>
       </c>
       <c r="H19">
-        <v>0.02924890381017065</v>
+        <v>0.02910115765573096</v>
       </c>
       <c r="I19">
-        <v>0.008454104800947881</v>
+        <v>0.008348272391490497</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.1374694402177798</v>
+        <v>0.1254815772729252</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.08676524679704478</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.02352235043445994</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.9515385518075448</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.130382260122445</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.9586972931641569</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.035488986117713</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.448214340764878</v>
+        <v>3.435826571707423</v>
       </c>
       <c r="C20">
-        <v>1.034133151475459</v>
+        <v>1.096299413430472</v>
       </c>
       <c r="D20">
-        <v>0.07950238944548715</v>
+        <v>0.08813160743826387</v>
       </c>
       <c r="E20">
-        <v>0.3243591449305683</v>
+        <v>0.3170771859968937</v>
       </c>
       <c r="F20">
-        <v>0.5670294902446358</v>
+        <v>0.5095423523511755</v>
       </c>
       <c r="G20">
-        <v>0.0007817847358055858</v>
+        <v>0.005934621688328257</v>
       </c>
       <c r="H20">
-        <v>0.006277645891023198</v>
+        <v>0.005933255350378364</v>
       </c>
       <c r="I20">
-        <v>0.009947079744174303</v>
+        <v>0.009480849626996246</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.1751270615255045</v>
+        <v>0.1495480738382859</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.09479745745293222</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.03443717658224266</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.364003634207194</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.48099372118611</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.375029042605405</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.299648151284345</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.857901292516942</v>
+        <v>3.839716267410495</v>
       </c>
       <c r="C21">
-        <v>1.151098305463847</v>
+        <v>1.182221174010579</v>
       </c>
       <c r="D21">
-        <v>0.086933413864557</v>
+        <v>0.1092372087504003</v>
       </c>
       <c r="E21">
-        <v>0.3829488104572718</v>
+        <v>0.373418908983794</v>
       </c>
       <c r="F21">
-        <v>0.629476742089679</v>
+        <v>0.4866979552261554</v>
       </c>
       <c r="G21">
-        <v>0.0007776448530321026</v>
+        <v>0.06820558172029934</v>
       </c>
       <c r="H21">
-        <v>0.009498603011000251</v>
+        <v>0.008584580541624504</v>
       </c>
       <c r="I21">
-        <v>0.01354068095970895</v>
+        <v>0.01184597773616236</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.1750586495920388</v>
+        <v>0.1244156481912189</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.08300659633365637</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.02997295292403024</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.568320903100243</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.62212568361889</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.57271348516511</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.174693323366881</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.135890012168886</v>
+        <v>4.114076203501043</v>
       </c>
       <c r="C22">
-        <v>1.22500972008379</v>
+        <v>1.232030484404845</v>
       </c>
       <c r="D22">
-        <v>0.09216047971089836</v>
+        <v>0.1248366247896371</v>
       </c>
       <c r="E22">
-        <v>0.4083341137096355</v>
+        <v>0.3977885839071789</v>
       </c>
       <c r="F22">
-        <v>0.6686183615503296</v>
+        <v>0.4668779467608317</v>
       </c>
       <c r="G22">
-        <v>0.0007750217034516828</v>
+        <v>0.1583906151378969</v>
       </c>
       <c r="H22">
-        <v>0.01180766592104493</v>
+        <v>0.01045757811762121</v>
       </c>
       <c r="I22">
-        <v>0.01590519478356622</v>
+        <v>0.01321936100261922</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.1747047191471047</v>
+        <v>0.1082609922410036</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.07631376641362131</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.02669515193611716</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.682561654837954</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.708731407567598</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.681630215127683</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.08070249278515</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.988020894288866</v>
+        <v>3.96791488041805</v>
       </c>
       <c r="C23">
-        <v>1.181352397984313</v>
+        <v>1.206441250518708</v>
       </c>
       <c r="D23">
-        <v>0.08907418792846755</v>
+        <v>0.1146943141038719</v>
       </c>
       <c r="E23">
-        <v>0.3950671906684207</v>
+        <v>0.3848674657603866</v>
       </c>
       <c r="F23">
-        <v>0.6499575183807735</v>
+        <v>0.4872800476679302</v>
       </c>
       <c r="G23">
-        <v>0.0007764044630394484</v>
+        <v>0.09206690642955806</v>
       </c>
       <c r="H23">
-        <v>0.010552932312206</v>
+        <v>0.009459515693882481</v>
       </c>
       <c r="I23">
-        <v>0.01436664312623215</v>
+        <v>0.01218746725028108</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.1761377961835606</v>
+        <v>0.1196320964224178</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.08063545438152175</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.02974595943009639</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.62080099355498</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.669787679415947</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.623720852946931</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.160844121159641</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.427542122493037</v>
+        <v>3.415014972793699</v>
       </c>
       <c r="C24">
-        <v>1.023721503079798</v>
+        <v>1.087368482666335</v>
       </c>
       <c r="D24">
-        <v>0.07789879151987122</v>
+        <v>0.08643868204718075</v>
       </c>
       <c r="E24">
-        <v>0.3445711104703832</v>
+        <v>0.3370010817969344</v>
       </c>
       <c r="F24">
-        <v>0.5775093394713124</v>
+        <v>0.5193003487767527</v>
       </c>
       <c r="G24">
-        <v>0.0007817622835609104</v>
+        <v>0.005786662124429576</v>
       </c>
       <c r="H24">
-        <v>0.006365343358766706</v>
+        <v>0.006015513755334767</v>
       </c>
       <c r="I24">
-        <v>0.009530956117339784</v>
+        <v>0.008963987364797532</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.1804902478671622</v>
+        <v>0.1538358062680629</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.09641425796166736</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.03603977500535827</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.388949395211924</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.515977068870825</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.400410330204494</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.331630281582193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.823215542765752</v>
+        <v>2.819311082363129</v>
       </c>
       <c r="C25">
-        <v>0.8551317141228765</v>
+        <v>0.9035096517048657</v>
       </c>
       <c r="D25">
-        <v>0.0658842091443077</v>
+        <v>0.07098356169157682</v>
       </c>
       <c r="E25">
-        <v>0.2904424457877326</v>
+        <v>0.2869611870941</v>
       </c>
       <c r="F25">
-        <v>0.5031933024911268</v>
+        <v>0.462793458373163</v>
       </c>
       <c r="G25">
-        <v>0.0007877684834101426</v>
+        <v>0.001791262580121078</v>
       </c>
       <c r="H25">
-        <v>0.0029234056973787</v>
+        <v>0.002923752854763317</v>
       </c>
       <c r="I25">
-        <v>0.005461920112974639</v>
+        <v>0.005767053238723285</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.1872034334526163</v>
+        <v>0.1652504093815708</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1060628692663332</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.03271553190237597</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.140190572306594</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.361551052057905</v>
+        <v>1.149884038171521</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.229840842697541</v>
       </c>
     </row>
   </sheetData>
